--- a/wetb/prepost/tests/data/demo_dlc/source/htc/DLCs/dlc01_demos.xlsx
+++ b/wetb/prepost/tests/data/demo_dlc/source/htc/DLCs/dlc01_demos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t xml:space="preserve">[t0]</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">hawc_binary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turb_s100_10ms</t>
   </si>
 </sst>
 </file>
@@ -294,46 +297,46 @@
   <dimension ref="A1:AM4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="Q16" activeCellId="0" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="6.3469387755102"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,8 +693,8 @@
         <v>39</v>
       </c>
       <c r="D4" s="6" t="str">
-        <f aca="false">"dlc01_steady_wsp" &amp; E4 &amp; "_noturb"</f>
-        <v>dlc01_steady_wsp10_noturb</v>
+        <f aca="false">"dlc01_steady_wsp" &amp; E4 &amp; "_s100"</f>
+        <v>dlc01_steady_wsp10_s100</v>
       </c>
       <c r="E4" s="5" t="n">
         <f aca="false">E3+1</f>
@@ -701,21 +704,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7" t="n">
         <f aca="false">(0.16*(0.75*E4+5.6))/E4</f>
         <v>0.2096</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K4" s="8" t="n">
-        <f aca="false">E4*B4/8192</f>
-        <v>0.048828125</v>
+        <f aca="false">E4*B4/512</f>
+        <v>0.78125</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>0</v>

--- a/wetb/prepost/tests/data/demo_dlc/source/htc/DLCs/dlc01_demos.xlsx
+++ b/wetb/prepost/tests/data/demo_dlc/source/htc/DLCs/dlc01_demos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t xml:space="preserve">[t0]</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve">turb_s100_10ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turb_s101_11ms</t>
   </si>
 </sst>
 </file>
@@ -294,49 +297,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM4"/>
+  <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q16" activeCellId="0" sqref="Q16"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.530612244898"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="6.20918367346939"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,10 +795,122 @@
         <v>41</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <f aca="false">A4</f>
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <f aca="false">A5+20</f>
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f aca="false">"dlc01_steady_wsp" &amp; E5 &amp; "_s101"</f>
+        <v>dlc01_steady_wsp11_s101</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <f aca="false">E4+1</f>
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">(0.16*(0.75*E5+5.6))/E5</f>
+        <v>0.201454545454545</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <f aca="false">E5*B5/512</f>
+        <v>0.859375</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <f aca="false">8/E5</f>
+        <v>0.727272727272727</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z5" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AH5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM5" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/wetb/prepost/tests/data/demo_dlc/source/htc/DLCs/dlc01_demos.xlsx
+++ b/wetb/prepost/tests/data/demo_dlc/source/htc/DLCs/dlc01_demos.xlsx
@@ -299,47 +299,49 @@
   </sheetPr>
   <dimension ref="A1:AM5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="15.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="18.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="38" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,21 +491,21 @@
         <v>0</v>
       </c>
       <c r="I2" s="7" t="n">
-        <f aca="false">(0.16*(0.75*E2+5.6))/E2</f>
+        <f aca="false">ROUND((0.16*(0.75*E2+5.6))/E2,4)</f>
         <v>0.232</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="K2" s="8" t="n">
-        <f aca="false">E2*B2/8192</f>
-        <v>0.0390625</v>
+        <f aca="false">ROUND(E2*B2/8192, 5)</f>
+        <v>0.03906</v>
       </c>
       <c r="L2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="9" t="n">
-        <f aca="false">8/E2</f>
+        <f aca="false">ROUND(8/E2, 4)</f>
         <v>1</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -601,22 +603,22 @@
         <v>0</v>
       </c>
       <c r="I3" s="7" t="n">
-        <f aca="false">(0.16*(0.75*E3+5.6))/E3</f>
-        <v>0.219555555555556</v>
+        <f aca="false">ROUND((0.16*(0.75*E3+5.6))/E3,4)</f>
+        <v>0.2196</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="K3" s="8" t="n">
-        <f aca="false">E3*B3/8192</f>
-        <v>0.0439453125</v>
+        <f aca="false">ROUND(E3*B3/8192, 5)</f>
+        <v>0.04395</v>
       </c>
       <c r="L3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="9" t="n">
-        <f aca="false">8/E3</f>
-        <v>0.888888888888889</v>
+        <f aca="false">ROUND(8/E3, 4)</f>
+        <v>0.8889</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>41</v>
@@ -713,21 +715,21 @@
         <v>1</v>
       </c>
       <c r="I4" s="7" t="n">
-        <f aca="false">(0.16*(0.75*E4+5.6))/E4</f>
+        <f aca="false">ROUND((0.16*(0.75*E4+5.6))/E4,4)</f>
         <v>0.2096</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>43</v>
       </c>
       <c r="K4" s="8" t="n">
-        <f aca="false">E4*B4/512</f>
+        <f aca="false">ROUND(E4*B4/512, 5)</f>
         <v>0.78125</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <f aca="false">8/E4</f>
+        <f aca="false">ROUND(8/E4, 4)</f>
         <v>0.8</v>
       </c>
       <c r="N4" s="5" t="s">
@@ -825,22 +827,22 @@
         <v>1</v>
       </c>
       <c r="I5" s="7" t="n">
-        <f aca="false">(0.16*(0.75*E5+5.6))/E5</f>
-        <v>0.201454545454545</v>
+        <f aca="false">ROUND((0.16*(0.75*E5+5.6))/E5,4)</f>
+        <v>0.2015</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="K5" s="8" t="n">
-        <f aca="false">E5*B5/512</f>
-        <v>0.859375</v>
+        <f aca="false">ROUND(E5*B5/512, 5)</f>
+        <v>0.85938</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="9" t="n">
-        <f aca="false">8/E5</f>
-        <v>0.727272727272727</v>
+        <f aca="false">ROUND(8/E5, 4)</f>
+        <v>0.7273</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>41</v>

--- a/wetb/prepost/tests/data/demo_dlc/source/htc/DLCs/dlc01_demos.xlsx
+++ b/wetb/prepost/tests/data/demo_dlc/source/htc/DLCs/dlc01_demos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
   <si>
     <t xml:space="preserve">[t0]</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">[wdir]</t>
   </si>
   <si>
-    <t xml:space="preserve">[tu_seed]</t>
+    <t xml:space="preserve">[seed]</t>
   </si>
   <si>
     <t xml:space="preserve">[tu_model]</t>
@@ -49,12 +49,93 @@
     <t xml:space="preserve">[TI]</t>
   </si>
   <si>
-    <t xml:space="preserve">[Turb base name]</t>
+    <t xml:space="preserve">[turb_base_name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[turb_dir]</t>
   </si>
   <si>
     <t xml:space="preserve">[turb_dx]</t>
   </si>
   <si>
+    <t xml:space="preserve">[meander_base_name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[meander_dir]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MannAlfaEpsilon_meander]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MannL_meander]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MannGamma_meander]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[seed_meander]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[turb_nr_u_meander]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[turb_nr_v_meander]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[turb_nr_w_meander]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[turb_dx_meander]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[turb_dy_meander]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[turb_dz_meander]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[high_freq_comp_meander]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[micro_base_name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[micro_dir]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MannAlfaEpsilon_micro]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MannL_micro]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MannGamma_micro]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[seed_micro]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[turb_nr_u_micro]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[turb_nr_v_micro]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[turb_nr_w_micro]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[turb_dx_micro]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[turb_dy_micro]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[turb_dz_micro]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[high_freq_comp_micro]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[shear_exp]</t>
   </si>
   <si>
@@ -145,6 +226,9 @@
     <t xml:space="preserve">none</t>
   </si>
   <si>
+    <t xml:space="preserve">turb/</t>
+  </si>
+  <si>
     <t xml:space="preserve">;</t>
   </si>
   <si>
@@ -155,17 +239,33 @@
   </si>
   <si>
     <t xml:space="preserve">turb_s101_11ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meander_s101_11ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turb_meander/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_s101_11ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turb_micro/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0"/>
+    <numFmt numFmtId="171" formatCode="0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -239,7 +339,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,6 +356,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -272,22 +376,34 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -297,51 +413,76 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="15.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="18.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="10.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="11.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="38" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="25.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="22.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="19.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="18.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="26.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="32" style="0" width="16.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="16.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="35" style="0" width="14.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="15.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="23.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="11.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="15.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="14.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="8.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="16.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="14.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="20.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="56" style="0" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="15.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="20.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="10.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="10.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="11.84"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="67" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -375,538 +516,819 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="6" t="n">
         <f aca="false">A2+20</f>
         <v>40</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="6" t="str">
+      <c r="C2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="7" t="str">
         <f aca="false">"dlc01_steady_wsp" &amp; E2 &amp; "_noturb"</f>
         <v>dlc01_steady_wsp8_noturb</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <f aca="false">ROUND((0.16*(0.75*E2+5.6))/E2,4)</f>
+      <c r="F2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="n">
         <v>0.232</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="8" t="n">
-        <f aca="false">ROUND(E2*B2/8192, 5)</f>
-        <v>0.03906</v>
-      </c>
-      <c r="L2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="9" t="n">
-        <f aca="false">ROUND(8/E2, 4)</f>
+      <c r="J2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>0.0390625</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5" t="n">
+      <c r="AO2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="W2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z2" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB2" s="5" t="n">
+      <c r="AX2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ2" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA2" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB2" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AC2" s="5" t="n">
+      <c r="BD2" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AD2" s="5" t="n">
+      <c r="BE2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="AE2" s="5" t="n">
+      <c r="BF2" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="AF2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG2" s="5" t="n">
+      <c r="BG2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH2" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="AH2" s="5" t="n">
+      <c r="BI2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AI2" s="5" t="n">
+      <c r="BJ2" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM2" s="0" t="s">
-        <v>41</v>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BM2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="BN2" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="6" t="n">
         <f aca="false">A2</f>
         <v>20</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="6" t="n">
         <f aca="false">A3+20</f>
         <v>40</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="6" t="str">
+      <c r="C3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="7" t="str">
         <f aca="false">"dlc01_steady_wsp" &amp; E3 &amp; "_noturb"</f>
         <v>dlc01_steady_wsp9_noturb</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="6" t="n">
         <f aca="false">E2+1</f>
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <f aca="false">ROUND((0.16*(0.75*E3+5.6))/E3,4)</f>
+      <c r="F3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="n">
         <v>0.2196</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="8" t="n">
-        <f aca="false">ROUND(E3*B3/8192, 5)</f>
-        <v>0.04395</v>
-      </c>
-      <c r="L3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="9" t="n">
-        <f aca="false">ROUND(8/E3, 4)</f>
+      <c r="J3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>0.0439453</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="8" t="n">
         <v>0.8889</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5" t="n">
+      <c r="AO3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="W3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y3" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z3" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA3" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB3" s="5" t="n">
+      <c r="AX3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ3" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA3" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB3" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AC3" s="5" t="n">
+      <c r="BD3" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AD3" s="5" t="n">
+      <c r="BE3" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="AE3" s="5" t="n">
+      <c r="BF3" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="AF3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG3" s="5" t="n">
+      <c r="BG3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH3" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="AH3" s="5" t="n">
+      <c r="BI3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AI3" s="5" t="n">
+      <c r="BJ3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM3" s="0" t="s">
-        <v>41</v>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BM3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="BN3" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="6" t="n">
         <f aca="false">A3</f>
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="6" t="n">
         <f aca="false">A4+20</f>
         <v>40</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="6" t="str">
+      <c r="C4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="7" t="str">
         <f aca="false">"dlc01_steady_wsp" &amp; E4 &amp; "_s100"</f>
         <v>dlc01_steady_wsp10_s100</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="6" t="n">
         <f aca="false">E3+1</f>
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="n">
+      <c r="F4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="7" t="n">
-        <f aca="false">ROUND((0.16*(0.75*E4+5.6))/E4,4)</f>
+      <c r="I4" s="8" t="n">
         <v>0.2096</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <f aca="false">ROUND(E4*B4/512, 5)</f>
+      <c r="J4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="9" t="n">
         <v>0.78125</v>
       </c>
-      <c r="L4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9" t="n">
-        <f aca="false">ROUND(8/E4, 4)</f>
+      <c r="M4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5" t="n">
+      <c r="AO4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="W4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y4" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z4" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA4" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB4" s="5" t="n">
+      <c r="AX4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AC4" s="5" t="n">
+      <c r="BD4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AD4" s="5" t="n">
+      <c r="BE4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="AE4" s="5" t="n">
+      <c r="BF4" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="AF4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG4" s="5" t="n">
+      <c r="BG4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH4" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="AH4" s="5" t="n">
+      <c r="BI4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AI4" s="5" t="n">
+      <c r="BJ4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM4" s="0" t="s">
-        <v>41</v>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BM4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="BN4" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="6" t="n">
         <f aca="false">A4</f>
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="6" t="n">
         <f aca="false">A5+20</f>
         <v>40</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="6" t="str">
+      <c r="C5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="7" t="str">
         <f aca="false">"dlc01_steady_wsp" &amp; E5 &amp; "_s101"</f>
         <v>dlc01_steady_wsp11_s101</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="6" t="n">
         <f aca="false">E4+1</f>
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="n">
+      <c r="F5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="7" t="n">
-        <f aca="false">ROUND((0.16*(0.75*E5+5.6))/E5,4)</f>
+      <c r="I5" s="8" t="n">
         <v>0.2015</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <f aca="false">ROUND(E5*B5/512, 5)</f>
-        <v>0.85938</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9" t="n">
-        <f aca="false">ROUND(8/E5, 4)</f>
+      <c r="J5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>0.859375</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="P5" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="R5" s="12" t="n">
+        <v>101</v>
+      </c>
+      <c r="S5" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="T5" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="U5" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="V5" s="13" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="W5" s="13" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="X5" s="13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB5" s="11" t="n">
+        <f aca="false">O5+10</f>
+        <v>21</v>
+      </c>
+      <c r="AC5" s="11" t="n">
+        <f aca="false">P5+10</f>
+        <v>22</v>
+      </c>
+      <c r="AD5" s="11" t="n">
+        <f aca="false">Q5+10</f>
+        <v>23</v>
+      </c>
+      <c r="AE5" s="12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AF5" s="12" t="n">
+        <f aca="false">S5+10</f>
+        <v>19</v>
+      </c>
+      <c r="AG5" s="12" t="n">
+        <f aca="false">T5+10</f>
+        <v>19</v>
+      </c>
+      <c r="AH5" s="12" t="n">
+        <f aca="false">U5+10</f>
+        <v>60</v>
+      </c>
+      <c r="AI5" s="13" t="n">
+        <f aca="false">V5+10</f>
+        <v>10.999</v>
+      </c>
+      <c r="AJ5" s="13" t="n">
+        <f aca="false">W5+10</f>
+        <v>10.999</v>
+      </c>
+      <c r="AK5" s="13" t="n">
+        <f aca="false">X5+10</f>
+        <v>11.33</v>
+      </c>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="8" t="n">
         <v>0.7273</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5" t="n">
+      <c r="AO5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="W5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z5" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA5" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB5" s="5" t="n">
+      <c r="AX5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AC5" s="5" t="n">
+      <c r="BD5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AD5" s="5" t="n">
+      <c r="BE5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="AE5" s="5" t="n">
+      <c r="BF5" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="AF5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG5" s="5" t="n">
+      <c r="BG5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH5" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="AH5" s="5" t="n">
+      <c r="BI5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AI5" s="5" t="n">
+      <c r="BJ5" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM5" s="0" t="s">
-        <v>41</v>
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BM5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="BN5" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/wetb/prepost/tests/data/demo_dlc/source/htc/DLCs/dlc01_demos.xlsx
+++ b/wetb/prepost/tests/data/demo_dlc/source/htc/DLCs/dlc01_demos.xlsx
@@ -257,15 +257,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0"/>
-    <numFmt numFmtId="171" formatCode="0.00"/>
+    <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0"/>
+    <numFmt numFmtId="172" formatCode="0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -368,7 +369,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -376,7 +377,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -384,15 +385,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -409,17 +410,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ5"/>
+  <dimension ref="A1:BN5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.25"/>
@@ -445,7 +446,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="26.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.88"/>
@@ -458,7 +458,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="11.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="6.88"/>
@@ -482,10 +481,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="10.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="10.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="11.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="67" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,19 +682,6 @@
       <c r="BN1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="ALX1" s="0"/>
-      <c r="ALY1" s="0"/>
-      <c r="ALZ1" s="0"/>
-      <c r="AMA1" s="0"/>
-      <c r="AMB1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
@@ -1334,7 +1319,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
